--- a/xlsx/戴维·玻姆_intext.xlsx
+++ b/xlsx/戴维·玻姆_intext.xlsx
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州理工學院</t>
+    <t>加州理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bohm-diffusion</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E8%AE%8A%E9%87%8F%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>隱變量理論</t>
+    <t>隐变量理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E4%BD%8D%E8%83%BD</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8E%E8%88%AA%E6%B3%A2</t>
   </si>
   <si>
-    <t>導航波</t>
+    <t>导航波</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BC%BF%E5%AD%90</t>
   </si>
   <si>
-    <t>電漿子</t>
+    <t>电浆子</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Implicate_and_explicate_order</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%9E%97%E5%B8%9D%E6%96%AF%E9%9C%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>普林帝斯霍爾</t>
+    <t>普林帝斯霍尔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Henri_Bortoft</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E8%B2%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>約翰·貝爾</t>
+    <t>约翰·贝尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%9C%A3%E5%90%89</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6</t>
   </si>
   <si>
-    <t>現實</t>
+    <t>现实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%B0%94%E5%AE%9A%E7%90%86</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%B5%B7%E9%8E%AE</t>
   </si>
   <si>
-    <t>奧海鎮</t>
+    <t>奥海镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E8%B5%96%E5%96%87%E5%98%9B</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E7%A5%9E%E7%A7%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>量子神秘主義</t>
+    <t>量子神秘主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/The_Holographic_Universe</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8%E8%AD%9C%E7%B3%BB%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>數學譜系計畫</t>
+    <t>数学谱系计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E5%BF%83%E7%90%86%E5%AD%A6</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A5%9E%E7%B6%93%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知神經科學</t>
+    <t>认知神经科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%85%A6</t>
   </si>
   <si>
-    <t>人腦</t>
+    <t>人脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%B6%93%E8%A7%A3%E5%89%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>神經解剖學</t>
+    <t>神经解剖学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%BB%8F%E7%94%9F%E7%90%86%E5%AD%A6</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6</t>
   </si>
   <si>
-    <t>記憶</t>
+    <t>记忆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%90%E5%8A%A8%E5%8D%8F%E8%B0%83</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E5%8A%83</t>
   </si>
   <si>
-    <t>企劃</t>
+    <t>企划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%86%B3%E9%97%AE%E9%A2%98</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%88%A9%E4%BD%9B%C2%B7%E8%96%A9%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>奧利佛·薩克斯</t>
+    <t>奥利佛·萨克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%C2%B7%E6%96%AF%E4%BD%A9%E9%87%8C</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8F%E8%BF%B7%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>昏迷指數</t>
+    <t>昏迷指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%93%88%E9%87%8C%E7%AA%97</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E7%9F%AD%E6%99%BA%E8%83%BD%E6%B8%AC%E9%A9%97</t>
   </si>
   <si>
-    <t>簡短智能測驗</t>
+    <t>简短智能测验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E7%89%B9%E9%B2%81%E6%99%AE%E6%95%88%E5%BA%94</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%A6%8F%E5%BE%B7%E5%8D%80</t>
   </si>
   <si>
-    <t>漢福德區</t>
+    <t>汉福德区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dayton_Project</t>
@@ -695,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%BD%8D%E4%B8%80%E9%AB%94%E6%A0%B8%E8%A9%A6</t>
   </si>
   <si>
-    <t>三位一體核試</t>
+    <t>三位一体核试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A51%E5%8F%B7%E5%A0%86</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E7%BE%85%E5%BE%B7%C2%B7%E5%B0%A4%E9%87%8C</t>
   </si>
   <si>
-    <t>哈羅德·尤里</t>
+    <t>哈罗德·尤里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E9%98%BF%E5%B0%94%E7%93%A6%E9%9B%B7%E8%8C%A8</t>
@@ -827,13 +827,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E8%B2%BB%E6%9B%BC</t>
   </si>
   <si>
-    <t>理查德·費曼</t>
+    <t>理查德·费曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8B%9E%E6%96%AF%C2%B7%E7%A6%8F%E5%85%8B%E6%96%AF</t>
   </si>
   <si>
-    <t>克勞斯·福克斯</t>
+    <t>克劳斯·福克斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%9B%E4%B8%BD%E4%BA%9A%C2%B7%E6%A0%BC%E4%BD%A9%E7%89%B9-%E6%A2%85%E8%80%B6</t>
@@ -863,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%C2%B7%E8%A5%BF%E5%A5%A7%E5%A4%9A%C2%B7%E8%A5%BF%E5%8D%9A%E6%A0%BC</t>
   </si>
   <si>
-    <t>格倫·西奧多·西博格</t>
+    <t>格伦·西奥多·西博格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E5%88%A9%E5%A5%A5%C2%B7%E5%A1%9E%E6%A0%BC%E9%9B%B7</t>
@@ -887,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%BE%B7%E8%8F%AF%C2%B7%E6%B3%B0%E5%8B%92</t>
   </si>
   <si>
-    <t>愛德華·泰勒</t>
+    <t>爱德华·泰勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A1%94%E5%B0%BC%E6%96%AF%E6%8B%89%E5%A4%AB%C2%B7%E4%B9%8C%E6%8B%89%E5%A7%86</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%B3%B6%E8%88%87%E9%95%B7%E5%B4%8E%E5%8E%9F%E5%AD%90%E5%BD%88%E7%88%86%E7%82%B8</t>
   </si>
   <si>
-    <t>廣島與長崎原子彈爆炸</t>
+    <t>广岛与长崎原子弹爆炸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Project_Alberta</t>
@@ -935,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E7%9B%A4%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>銀盤計畫</t>
+    <t>银盘计画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/509th_Composite_Group</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%AB%BE%E6%8B%89%C2%B7%E8%93%8B%E8%99%9F%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>艾諾拉·蓋號轟炸機</t>
+    <t>艾诺拉·盖号轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%85%8B%E6%96%AF%E5%8D%A1%E5%8F%B7%E8%BD%B0%E7%82%B8%E6%9C%BA</t>
@@ -977,13 +977,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%94%B7%E5%AD%A9%E5%8E%9F%E5%AD%90%E5%BD%88</t>
   </si>
   <si>
-    <t>小男孩原子彈</t>
+    <t>小男孩原子弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%93%9C%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>南瓜炸彈</t>
+    <t>南瓜炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%98%A6%E5%AD%90_(%E5%8E%9F%E5%AD%90%E5%BC%B9)</t>
@@ -1001,7 +1001,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9B%A0%E6%96%AF%E5%9D%A6%E2%80%94%E8%A5%BF%E6%8B%89%E5%BE%B7%E4%BF%A1</t>
   </si>
   <si>
-    <t>愛因斯坦—西拉德信</t>
+    <t>爱因斯坦—西拉德信</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Interim_Committee</t>
@@ -1043,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%88%BE</t>
   </si>
   <si>
-    <t>鈾</t>
+    <t>铀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%9D%9A%E5%90%88%E4%BC%97%E5%9B%BD%E8%AF%89%E8%BF%9B%E6%AD%A5%E6%A1%88</t>
@@ -1055,13 +1055,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8%E5%85%A5%E9%96%80</t>
   </si>
   <si>
-    <t>量子力學入門</t>
+    <t>量子力学入门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8%E7%9A%84%E6%95%B8%E5%AD%B8%E8%A1%A8%E8%BF%B0</t>
   </si>
   <si>
-    <t>量子力學的數學表述</t>
+    <t>量子力学的数学表述</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%A6%E5%8F%B2</t>
@@ -1085,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E9%87%8F%E5%AD%90%E8%AB%96</t>
   </si>
   <si>
-    <t>舊量子論</t>
+    <t>旧量子论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Glossary_of_elementary_quantum_mechanics</t>
@@ -1109,7 +1109,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E5%BA%A6%E7%9F%A9%E9%99%A3</t>
   </si>
   <si>
-    <t>密度矩陣</t>
+    <t>密度矩阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E7%BA%A7</t>
@@ -1139,13 +1139,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B6%E9%BB%9E%E8%83%BD%E9%87%8F</t>
   </si>
   <si>
-    <t>零點能量</t>
+    <t>零点能量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E7%BA%8F%E7%B5%90</t>
   </si>
   <si>
-    <t>量子纏結</t>
+    <t>量子缠结</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%AF%86%E9%A1%BF%E7%AE%97%E7%AC%A6</t>
@@ -1163,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E6%B8%AC%E9%87%8F</t>
   </si>
   <si>
-    <t>量子測量</t>
+    <t>量子测量</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantum_nonlocality</t>
@@ -1175,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E6%85%8B</t>
   </si>
   <si>
-    <t>量子態</t>
+    <t>量子态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%81%E5%8F%A0%E5%8A%A0%E5%8E%9F%E7%90%86</t>
@@ -1187,7 +1187,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E7%A9%BF%E9%9A%A7%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>量子穿隧效應</t>
+    <t>量子穿隧效应</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Scattering_theory</t>
@@ -1241,31 +1241,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%A3%AE%E5%A0%A1%E7%B9%AA%E6%99%AF</t>
   </si>
   <si>
-    <t>海森堡繪景</t>
+    <t>海森堡绘景</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BA%92%E4%BD%9C%E7%94%A8%E7%B9%AA%E6%99%AF</t>
   </si>
   <si>
-    <t>相互作用繪景</t>
+    <t>相互作用绘景</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A9%E9%99%A3%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>矩陣力學</t>
+    <t>矩阵力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E4%B8%81%E6%A0%BC%E7%B9%AA%E6%99%AF</t>
   </si>
   <si>
-    <t>薛丁格繪景</t>
+    <t>薛丁格绘景</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E5%BE%91%E7%A9%8D%E5%88%86%E8%A1%A8%E8%BF%B0</t>
   </si>
   <si>
-    <t>路徑積分表述</t>
+    <t>路径积分表述</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E7%A9%BA%E9%97%B4%E8%A1%A8%E8%BF%B0</t>
@@ -1319,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8%E8%A9%AE%E9%87%8B</t>
   </si>
   <si>
-    <t>量子力學詮釋</t>
+    <t>量子力学诠释</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantum_Bayesianism</t>
@@ -1337,13 +1337,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9C%AC%E5%93%88%E6%A0%B9%E8%A9%AE%E9%87%8B</t>
   </si>
   <si>
-    <t>哥本哈根詮釋</t>
+    <t>哥本哈根诠释</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B6%9C%E8%A9%AE%E9%87%8B</t>
   </si>
   <si>
-    <t>系綜詮釋</t>
+    <t>系综诠释</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E4%B8%96%E7%95%8C%E8%AF%A0%E9%87%8A</t>
@@ -1355,7 +1355,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E5%9D%8D%E7%B8%AE%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>客觀坍縮理論</t>
+    <t>客观坍缩理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantum_logic</t>
@@ -1367,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E4%BF%82%E6%80%A7%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>關係性量子力學</t>
+    <t>关系性量子力学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Stochastic_quantum_mechanics</t>
@@ -1379,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%98%93%E8%A9%AE%E9%87%8B</t>
   </si>
   <si>
-    <t>交易詮釋</t>
+    <t>交易诠释</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%8A%9B%E5%AD%A6%E7%9A%84%E5%AE%87%E5%AE%99%E5%AD%A6%E8%AF%A0%E9%87%8A</t>
@@ -1391,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%BC%97%E6%B2%99%E7%88%BE%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>阿弗沙爾實驗</t>
+    <t>阿弗沙尔实验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bell_test_experiments</t>
@@ -1409,25 +1409,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B4%E7%B6%AD%E6%A3%AE%EF%BC%8D%E9%9D%A9%E6%9C%AB%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>戴維森－革末實驗</t>
+    <t>戴维森－革末实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E9%81%B2%E9%81%B8%E6%93%87%E9%87%8F%E5%AD%90%E6%93%A6%E9%99%A4%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>延遲選擇量子擦除實驗</t>
+    <t>延迟选择量子擦除实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E7%B8%AB%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>雙縫實驗</t>
+    <t>双缝实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B-%E8%B5%AB%E8%8C%B2%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>法蘭克-赫茲實驗</t>
+    <t>法兰克-赫兹实验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Leggett%E2%80%93Garg_inequality</t>
@@ -1439,13 +1439,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%B5%AB-%E6%9B%BE%E5%BE%B7%E7%88%BE%E5%B9%B2%E6%B6%89%E5%84%80</t>
   </si>
   <si>
-    <t>馬赫-曾德爾干涉儀</t>
+    <t>马赫-曾德尔干涉仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E6%BE%A4-%E5%A8%81%E5%BE%B7%E6%9B%BC%E7%82%B8%E5%BD%88%E6%B8%AC%E8%A9%A6%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>伊利澤-威德曼炸彈測試問題</t>
+    <t>伊利泽-威德曼炸弹测试问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%99%AE%E5%B0%94%E5%AE%9E%E9%AA%8C</t>
@@ -1457,7 +1457,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E6%93%A6%E9%99%A4%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>量子擦除實驗</t>
+    <t>量子擦除实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E5%AE%9A%E8%B0%94%E7%8C%AB</t>
@@ -1517,7 +1517,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%AE%87%E5%AE%99%E5%AD%B8</t>
   </si>
   <si>
-    <t>量子宇宙學</t>
+    <t>量子宇宙学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantum_differential_calculus</t>
@@ -1619,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E7%B7%9A%E8%B7%AF</t>
   </si>
   <si>
-    <t>量子線路</t>
+    <t>量子线路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%A4%8D%E6%9D%82%E6%80%A7%E7%90%86%E8%AE%BA</t>
@@ -1643,7 +1643,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%AF%86%E7%A2%BC%E5%AD%B8</t>
   </si>
   <si>
-    <t>量子密碼學</t>
+    <t>量子密码学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%85%89%E5%AD%A6</t>
@@ -1679,13 +1679,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E5%AF%86%E9%91%B0%E5%88%86%E7%99%BC</t>
   </si>
   <si>
-    <t>量子密鑰分發</t>
+    <t>量子密钥分发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E9%96%98</t>
   </si>
   <si>
-    <t>量子閘</t>
+    <t>量子闸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantum_machine</t>
@@ -1745,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8F%E5%AD%90%E9%9A%B1%E5%BD%A2%E5%82%B3%E6%85%8B</t>
   </si>
   <si>
-    <t>量子隱形傳態</t>
+    <t>量子隐形传态</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Quantum_statistical_mechanics</t>
@@ -1787,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E6%99%AE%E6%9C%97%E5%85%8B</t>
   </si>
   <si>
-    <t>馬克斯·普朗克</t>
+    <t>马克斯·普朗克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E5%9F%83%E4%BC%A6%E8%B4%B9%E6%96%AF%E7%89%B9</t>
@@ -1799,7 +1799,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%B4%8D%C2%B7%E6%B5%B7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>沃納·海森堡</t>
+    <t>沃纳·海森堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%B0%94%E6%B8%A9%C2%B7%E8%96%9B%E5%AE%9A%E8%B0%94</t>
@@ -1811,7 +1811,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E7%8E%BB%E6%81%A9</t>
   </si>
   <si>
-    <t>馬克斯·玻恩</t>
+    <t>马克斯·玻恩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%C2%B7%E8%89%BE%E5%BC%97%E9%9B%B7%E7%89%B9%E4%B8%89%E4%B8%96</t>
@@ -1823,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%AB%BE%C2%B7%E7%B4%A2%E6%9C%AB%E8%8F%B2</t>
   </si>
   <si>
-    <t>阿諾·索末菲</t>
+    <t>阿诺·索末菲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%86%AF%C2%B7%E8%AF%BA%E4%BC%8A%E6%9B%BC</t>
@@ -1835,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%C2%B7%E8%B2%BB%E6%9B%BC</t>
   </si>
   <si>
-    <t>理查·費曼</t>
+    <t>理查·费曼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BD%97%C2%B7%E7%8B%84%E6%8B%89%E5%85%8B</t>
@@ -1859,7 +1859,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A1%9B%C2%B7%E7%8E%BB%E5%A7%86</t>
   </si>
   <si>
-    <t>大衛·玻姆</t>
+    <t>大卫·玻姆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E4%B8%9C%C2%B7%E8%94%A1%E6%9E%97%E6%A0%BC</t>
@@ -1871,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1889,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1907,7 +1907,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1919,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
